--- a/Code/Results/Cases/Case_9_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9165652829491364</v>
+        <v>0.8736600474194063</v>
       </c>
       <c r="C2">
-        <v>0.1471123335959916</v>
+        <v>0.1310632973350465</v>
       </c>
       <c r="D2">
-        <v>0.09756338194595315</v>
+        <v>0.09963539178976077</v>
       </c>
       <c r="E2">
-        <v>0.06196555121635505</v>
+        <v>0.06017796642656315</v>
       </c>
       <c r="F2">
-        <v>0.713552127124828</v>
+        <v>0.6719132474562741</v>
       </c>
       <c r="G2">
-        <v>0.4546339637254349</v>
+        <v>0.4081681691984755</v>
       </c>
       <c r="H2">
-        <v>0.01086663869707328</v>
+        <v>0.00918500895340138</v>
       </c>
       <c r="I2">
-        <v>0.01135224790556277</v>
+        <v>0.008597202378840763</v>
       </c>
       <c r="J2">
-        <v>0.3976417058989554</v>
+        <v>0.3936095255070953</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07554384411464277</v>
+        <v>0.1849449005889987</v>
       </c>
       <c r="M2">
-        <v>0.7444409891725456</v>
+        <v>0.1353216759468676</v>
       </c>
       <c r="N2">
-        <v>0.1345692494718378</v>
+        <v>0.07193616300582217</v>
       </c>
       <c r="O2">
-        <v>0.1942257947908956</v>
+        <v>0.7486756370060164</v>
       </c>
       <c r="P2">
-        <v>1.069409654709581</v>
+        <v>0.1489565099171486</v>
       </c>
       <c r="Q2">
-        <v>1.742286342422716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1918743870041375</v>
+      </c>
+      <c r="R2">
+        <v>1.0298278608626</v>
+      </c>
+      <c r="S2">
+        <v>1.621336164576149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8008698784579451</v>
+        <v>0.7656577630027357</v>
       </c>
       <c r="C3">
-        <v>0.1427590928177125</v>
+        <v>0.1244698241823059</v>
       </c>
       <c r="D3">
-        <v>0.08895091954889267</v>
+        <v>0.09088435901384173</v>
       </c>
       <c r="E3">
-        <v>0.05948511408389301</v>
+        <v>0.05797832557102645</v>
       </c>
       <c r="F3">
-        <v>0.6987310969339688</v>
+        <v>0.6600070438211247</v>
       </c>
       <c r="G3">
-        <v>0.446653974241876</v>
+        <v>0.4040427028526921</v>
       </c>
       <c r="H3">
-        <v>0.01322130978217366</v>
+        <v>0.01121598261566031</v>
       </c>
       <c r="I3">
-        <v>0.01365317621636564</v>
+        <v>0.01036236703742865</v>
       </c>
       <c r="J3">
-        <v>0.3976460551839196</v>
+        <v>0.3918688529166445</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07384044372074872</v>
+        <v>0.189291202409251</v>
       </c>
       <c r="M3">
-        <v>0.6491939549379993</v>
+        <v>0.1342497610797615</v>
       </c>
       <c r="N3">
-        <v>0.1215746532114679</v>
+        <v>0.07047730773836758</v>
       </c>
       <c r="O3">
-        <v>0.1709353893004675</v>
+        <v>0.6531950017150621</v>
       </c>
       <c r="P3">
-        <v>1.098569773603588</v>
+        <v>0.1346968406363303</v>
       </c>
       <c r="Q3">
-        <v>1.725122733759235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1689628063552817</v>
+      </c>
+      <c r="R3">
+        <v>1.05605476834136</v>
+      </c>
+      <c r="S3">
+        <v>1.611080729452226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7295088603201236</v>
+        <v>0.6988532386440909</v>
       </c>
       <c r="C4">
-        <v>0.1400833924647102</v>
+        <v>0.1204711726373304</v>
       </c>
       <c r="D4">
-        <v>0.08369374942182617</v>
+        <v>0.08554791888041535</v>
       </c>
       <c r="E4">
-        <v>0.05794952599399572</v>
+        <v>0.05661362501793299</v>
       </c>
       <c r="F4">
-        <v>0.6900551061105915</v>
+        <v>0.6530261132675363</v>
       </c>
       <c r="G4">
-        <v>0.4420757374932123</v>
+        <v>0.401839044526028</v>
       </c>
       <c r="H4">
-        <v>0.01484415942535344</v>
+        <v>0.01261811609099685</v>
       </c>
       <c r="I4">
-        <v>0.01526785798773123</v>
+        <v>0.01161811244322131</v>
       </c>
       <c r="J4">
-        <v>0.3978764275131752</v>
+        <v>0.3908721367162542</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07275508101735007</v>
+        <v>0.1920359136779055</v>
       </c>
       <c r="M4">
-        <v>0.5906074400542849</v>
+        <v>0.1341284597539545</v>
       </c>
       <c r="N4">
-        <v>0.1136463424033494</v>
+        <v>0.06954326177120063</v>
       </c>
       <c r="O4">
-        <v>0.1566164640171159</v>
+        <v>0.5944442575951285</v>
       </c>
       <c r="P4">
-        <v>1.117074287329451</v>
+        <v>0.126024371303636</v>
       </c>
       <c r="Q4">
-        <v>1.71573541314585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1548638031718568</v>
+      </c>
+      <c r="R4">
+        <v>1.072777278683704</v>
+      </c>
+      <c r="S4">
+        <v>1.605663500623621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6996938444021907</v>
+        <v>0.6708644321086012</v>
       </c>
       <c r="C5">
-        <v>0.1390894623597809</v>
+        <v>0.1189796316007161</v>
       </c>
       <c r="D5">
-        <v>0.08157584257074291</v>
+        <v>0.08339944874536798</v>
       </c>
       <c r="E5">
-        <v>0.0572987727766332</v>
+        <v>0.05603263757665289</v>
       </c>
       <c r="F5">
-        <v>0.6862472469334477</v>
+        <v>0.6498951212671358</v>
       </c>
       <c r="G5">
-        <v>0.4399701244454235</v>
+        <v>0.40071846447605</v>
       </c>
       <c r="H5">
-        <v>0.01555331165212079</v>
+        <v>0.01323150345441283</v>
       </c>
       <c r="I5">
-        <v>0.01606361994625072</v>
+        <v>0.01227192979487768</v>
       </c>
       <c r="J5">
-        <v>0.3978615760691326</v>
+        <v>0.3903162278709615</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07227720284598238</v>
+        <v>0.1930247913702274</v>
       </c>
       <c r="M5">
-        <v>0.5667171519640704</v>
+        <v>0.1341423554358485</v>
       </c>
       <c r="N5">
-        <v>0.1105459353340095</v>
+        <v>0.06912941681184481</v>
       </c>
       <c r="O5">
-        <v>0.1507406557373656</v>
+        <v>0.5704825238483551</v>
       </c>
       <c r="P5">
-        <v>1.124706742763715</v>
+        <v>0.1226327577283328</v>
       </c>
       <c r="Q5">
-        <v>1.711171616615815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1490746289211806</v>
+      </c>
+      <c r="R5">
+        <v>1.079715738201921</v>
+      </c>
+      <c r="S5">
+        <v>1.602683916669804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6939390841733371</v>
+        <v>0.6654236254959471</v>
       </c>
       <c r="C6">
-        <v>0.1390454359041939</v>
+        <v>0.1188889977677619</v>
       </c>
       <c r="D6">
-        <v>0.08124545995912769</v>
+        <v>0.08306439118977949</v>
       </c>
       <c r="E6">
-        <v>0.05716394085822785</v>
+        <v>0.05590997189802138</v>
       </c>
       <c r="F6">
-        <v>0.68516108456555</v>
+        <v>0.6489316990322962</v>
       </c>
       <c r="G6">
-        <v>0.4392360457881495</v>
+        <v>0.4001674447863905</v>
       </c>
       <c r="H6">
-        <v>0.01567925555924088</v>
+        <v>0.01334065890939783</v>
       </c>
       <c r="I6">
-        <v>0.01631394950403742</v>
+        <v>0.01251400765997079</v>
       </c>
       <c r="J6">
-        <v>0.3976607840310038</v>
+        <v>0.3900201621936503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07216611267327089</v>
+        <v>0.1930091577987767</v>
       </c>
       <c r="M6">
-        <v>0.5627643858746154</v>
+        <v>0.1340649356201205</v>
       </c>
       <c r="N6">
-        <v>0.1101772481988306</v>
+        <v>0.06903153155588804</v>
       </c>
       <c r="O6">
-        <v>0.1497211124631264</v>
+        <v>0.5665177958973118</v>
       </c>
       <c r="P6">
-        <v>1.125915510639144</v>
+        <v>0.1222209667232548</v>
       </c>
       <c r="Q6">
-        <v>1.709183131231541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1480693782339912</v>
+      </c>
+      <c r="R6">
+        <v>1.080843377057461</v>
+      </c>
+      <c r="S6">
+        <v>1.600995847461775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7269177915770513</v>
+        <v>0.6959022568965736</v>
       </c>
       <c r="C7">
-        <v>0.1404025885940641</v>
+        <v>0.1207908684922003</v>
       </c>
       <c r="D7">
-        <v>0.08372221971531957</v>
+        <v>0.08570308877303034</v>
       </c>
       <c r="E7">
-        <v>0.05786834644974093</v>
+        <v>0.05655182235830303</v>
       </c>
       <c r="F7">
-        <v>0.6887483928749063</v>
+        <v>0.6510898177602158</v>
       </c>
       <c r="G7">
-        <v>0.4409854513598219</v>
+        <v>0.403156206239224</v>
       </c>
       <c r="H7">
-        <v>0.01486814556257904</v>
+        <v>0.01264619046941938</v>
       </c>
       <c r="I7">
-        <v>0.01557651024234374</v>
+        <v>0.01197319946604924</v>
       </c>
       <c r="J7">
-        <v>0.3973265247521738</v>
+        <v>0.3868482802010647</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07266415422021666</v>
+        <v>0.1913927890609273</v>
       </c>
       <c r="M7">
-        <v>0.5903288533804414</v>
+        <v>0.1337841872302672</v>
       </c>
       <c r="N7">
-        <v>0.114002271557446</v>
+        <v>0.06944723919751894</v>
       </c>
       <c r="O7">
-        <v>0.1564179291831032</v>
+        <v>0.5935914965497489</v>
       </c>
       <c r="P7">
-        <v>1.117005407512031</v>
+        <v>0.1263823597160041</v>
       </c>
       <c r="Q7">
-        <v>1.712270966179076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1546014288895492</v>
+      </c>
+      <c r="R7">
+        <v>1.072776445167602</v>
+      </c>
+      <c r="S7">
+        <v>1.60036306574807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.873815953011956</v>
+        <v>0.8322418802727043</v>
       </c>
       <c r="C8">
-        <v>0.1460634307120046</v>
+        <v>0.129066445028954</v>
       </c>
       <c r="D8">
-        <v>0.09466310857344951</v>
+        <v>0.09711102661117366</v>
       </c>
       <c r="E8">
-        <v>0.06101775645561602</v>
+        <v>0.05938716889367335</v>
       </c>
       <c r="F8">
-        <v>0.7066992280589162</v>
+        <v>0.6639181654024995</v>
       </c>
       <c r="G8">
-        <v>0.4504157130183231</v>
+        <v>0.4131877210955039</v>
       </c>
       <c r="H8">
-        <v>0.01165706047647212</v>
+        <v>0.009885388188166581</v>
       </c>
       <c r="I8">
-        <v>0.01246215964157216</v>
+        <v>0.009600833267056075</v>
       </c>
       <c r="J8">
-        <v>0.3968746171545661</v>
+        <v>0.3810508281538674</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07485507138994052</v>
+        <v>0.1853292234719888</v>
       </c>
       <c r="M8">
-        <v>0.7116761221365948</v>
+        <v>0.134109406346532</v>
       </c>
       <c r="N8">
-        <v>0.1306072543106183</v>
+        <v>0.07130126775802914</v>
       </c>
       <c r="O8">
-        <v>0.1860392351885594</v>
+        <v>0.7139107115597909</v>
       </c>
       <c r="P8">
-        <v>1.079169506769791</v>
+        <v>0.1445470652164715</v>
       </c>
       <c r="Q8">
-        <v>1.731650259047612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1836025747315269</v>
+      </c>
+      <c r="R8">
+        <v>1.038741549257168</v>
+      </c>
+      <c r="S8">
+        <v>1.606815041719798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.16332398907133</v>
+        <v>1.101131442185448</v>
       </c>
       <c r="C9">
-        <v>0.1565684517961188</v>
+        <v>0.1452608746457145</v>
       </c>
       <c r="D9">
-        <v>0.1162790288300215</v>
+        <v>0.1192260090298447</v>
       </c>
       <c r="E9">
-        <v>0.06722671232568267</v>
+        <v>0.06490246399719268</v>
       </c>
       <c r="F9">
-        <v>0.7476320929216342</v>
+        <v>0.6964047057666107</v>
       </c>
       <c r="G9">
-        <v>0.4734686284903944</v>
+        <v>0.4287813786376375</v>
       </c>
       <c r="H9">
-        <v>0.006805353999090574</v>
+        <v>0.005711327408880695</v>
       </c>
       <c r="I9">
-        <v>0.007564225359478982</v>
+        <v>0.005814291799377536</v>
       </c>
       <c r="J9">
-        <v>0.3988156085171042</v>
+        <v>0.3834394480011056</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07899248085081823</v>
+        <v>0.1754438139244776</v>
       </c>
       <c r="M9">
-        <v>0.9488704960367897</v>
+        <v>0.1398762026122604</v>
       </c>
       <c r="N9">
-        <v>0.1628955761414019</v>
+        <v>0.07481958682883683</v>
       </c>
       <c r="O9">
-        <v>0.2442232652408123</v>
+        <v>0.9509773957395282</v>
       </c>
       <c r="P9">
-        <v>1.010068302709808</v>
+        <v>0.1801526026244531</v>
       </c>
       <c r="Q9">
-        <v>1.785184833373066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2406997318481423</v>
+      </c>
+      <c r="R9">
+        <v>0.9771117584214135</v>
+      </c>
+      <c r="S9">
+        <v>1.639706593233186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.36726056031506</v>
+        <v>1.287472911146267</v>
       </c>
       <c r="C10">
-        <v>0.1652232605779673</v>
+        <v>0.1579849137434906</v>
       </c>
       <c r="D10">
-        <v>0.130450289861372</v>
+        <v>0.1345052606197612</v>
       </c>
       <c r="E10">
-        <v>0.06993525222347152</v>
+        <v>0.06728010257894113</v>
       </c>
       <c r="F10">
-        <v>0.7720279021400245</v>
+        <v>0.7110614072034238</v>
       </c>
       <c r="G10">
-        <v>0.4868031006062239</v>
+        <v>0.4514206613669955</v>
       </c>
       <c r="H10">
-        <v>0.004544442389613046</v>
+        <v>0.003826593082465024</v>
       </c>
       <c r="I10">
-        <v>0.005262656427927226</v>
+        <v>0.004190967216472608</v>
       </c>
       <c r="J10">
-        <v>0.3987108091378815</v>
+        <v>0.3650135965980752</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08070514302661458</v>
+        <v>0.1665979477495902</v>
       </c>
       <c r="M10">
-        <v>1.121813597753942</v>
+        <v>0.144516337680983</v>
       </c>
       <c r="N10">
-        <v>0.180857205051197</v>
+        <v>0.07624384703876341</v>
       </c>
       <c r="O10">
-        <v>0.2827861189846814</v>
+        <v>1.120181124403558</v>
       </c>
       <c r="P10">
-        <v>0.9625740327713448</v>
+        <v>0.2002387247881074</v>
       </c>
       <c r="Q10">
-        <v>1.813637618854784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2780654431584395</v>
+      </c>
+      <c r="R10">
+        <v>0.9363302142725516</v>
+      </c>
+      <c r="S10">
+        <v>1.642558053717607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.401676576154017</v>
+        <v>1.317815278093036</v>
       </c>
       <c r="C11">
-        <v>0.1767477523580183</v>
+        <v>0.1712514877187843</v>
       </c>
       <c r="D11">
-        <v>0.1205754409999571</v>
+        <v>0.1259301818252965</v>
       </c>
       <c r="E11">
-        <v>0.05764856982902344</v>
+        <v>0.05562272174595151</v>
       </c>
       <c r="F11">
-        <v>0.7186445508001142</v>
+        <v>0.654024114043942</v>
       </c>
       <c r="G11">
-        <v>0.4500289832878011</v>
+        <v>0.4470962154230591</v>
       </c>
       <c r="H11">
-        <v>0.02311796976239577</v>
+        <v>0.02246644005672849</v>
       </c>
       <c r="I11">
-        <v>0.005256997499105687</v>
+        <v>0.004472249576372711</v>
       </c>
       <c r="J11">
-        <v>0.3770128161143447</v>
+        <v>0.3150834385403556</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07612940753361697</v>
+        <v>0.1523944546223923</v>
       </c>
       <c r="M11">
-        <v>1.19051507330812</v>
+        <v>0.1345050713971467</v>
       </c>
       <c r="N11">
-        <v>0.1390366696686911</v>
+        <v>0.07329841110083368</v>
       </c>
       <c r="O11">
-        <v>0.2650376662230052</v>
+        <v>1.180923803210248</v>
       </c>
       <c r="P11">
-        <v>0.9467420066705117</v>
+        <v>0.1556515822371694</v>
       </c>
       <c r="Q11">
-        <v>1.690400839746957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.259744398706534</v>
+      </c>
+      <c r="R11">
+        <v>0.931114716350617</v>
+      </c>
+      <c r="S11">
+        <v>1.508531505744941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.390369371748534</v>
+        <v>1.308465464389002</v>
       </c>
       <c r="C12">
-        <v>0.1851471274426757</v>
+        <v>0.1800392966264042</v>
       </c>
       <c r="D12">
-        <v>0.1094910799888424</v>
+        <v>0.1151508211982701</v>
       </c>
       <c r="E12">
-        <v>0.04937313881560179</v>
+        <v>0.04777866497618888</v>
       </c>
       <c r="F12">
-        <v>0.6713268079954702</v>
+        <v>0.6082961543141963</v>
       </c>
       <c r="G12">
-        <v>0.4184939156855734</v>
+        <v>0.4307185461312599</v>
       </c>
       <c r="H12">
-        <v>0.06198115199470777</v>
+        <v>0.06133231843308096</v>
       </c>
       <c r="I12">
-        <v>0.005172718164205392</v>
+        <v>0.00442135786199227</v>
       </c>
       <c r="J12">
-        <v>0.359762146580259</v>
+        <v>0.2917067650233278</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07788843001751644</v>
+        <v>0.1439077203168537</v>
       </c>
       <c r="M12">
-        <v>1.211669692660649</v>
+        <v>0.1261503229833707</v>
       </c>
       <c r="N12">
-        <v>0.1047476420176423</v>
+        <v>0.07639605814583383</v>
       </c>
       <c r="O12">
-        <v>0.242655548608834</v>
+        <v>1.198256715810857</v>
       </c>
       <c r="P12">
-        <v>0.9476807837903714</v>
+        <v>0.1187316105512437</v>
       </c>
       <c r="Q12">
-        <v>1.587478944843738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2374116619127271</v>
+      </c>
+      <c r="R12">
+        <v>0.9393175096056794</v>
+      </c>
+      <c r="S12">
+        <v>1.409500141960862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.339804982443638</v>
+        <v>1.265805371132188</v>
       </c>
       <c r="C13">
-        <v>0.1920529586724768</v>
+        <v>0.18688676301241</v>
       </c>
       <c r="D13">
-        <v>0.09697868748055782</v>
+        <v>0.1019828726206029</v>
       </c>
       <c r="E13">
-        <v>0.04357636672004972</v>
+        <v>0.04231827615560224</v>
       </c>
       <c r="F13">
-        <v>0.6239290292047386</v>
+        <v>0.5676060614028202</v>
       </c>
       <c r="G13">
-        <v>0.3874332893619012</v>
+        <v>0.3969293117512649</v>
       </c>
       <c r="H13">
-        <v>0.1181155467790518</v>
+        <v>0.1174097949093209</v>
       </c>
       <c r="I13">
-        <v>0.005426222487137977</v>
+        <v>0.004587257254652144</v>
       </c>
       <c r="J13">
-        <v>0.3440162495566312</v>
+        <v>0.2855640656087779</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08431651509503624</v>
+        <v>0.1383467789261434</v>
       </c>
       <c r="M13">
-        <v>1.197317409835847</v>
+        <v>0.1184599142108276</v>
       </c>
       <c r="N13">
-        <v>0.07501611348966009</v>
+        <v>0.08396612100428413</v>
       </c>
       <c r="O13">
-        <v>0.2153724605962033</v>
+        <v>1.184720624374989</v>
       </c>
       <c r="P13">
-        <v>0.9606518514343918</v>
+        <v>0.08642513902097448</v>
       </c>
       <c r="Q13">
-        <v>1.488635567227291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2107649631652428</v>
+      </c>
+      <c r="R13">
+        <v>0.955874966918266</v>
+      </c>
+      <c r="S13">
+        <v>1.328980479310189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.286180110324864</v>
+        <v>1.220263955453646</v>
       </c>
       <c r="C14">
-        <v>0.1964485159511753</v>
+        <v>0.1910689552787375</v>
       </c>
       <c r="D14">
-        <v>0.0877168301405078</v>
+        <v>0.09191298314126328</v>
       </c>
       <c r="E14">
-        <v>0.04098570303345284</v>
+        <v>0.03994718492978921</v>
       </c>
       <c r="F14">
-        <v>0.5908061863183747</v>
+        <v>0.5410420121086332</v>
       </c>
       <c r="G14">
-        <v>0.3659109076859508</v>
+        <v>0.3667994943811976</v>
       </c>
       <c r="H14">
-        <v>0.1678101941984949</v>
+        <v>0.1670358978445137</v>
       </c>
       <c r="I14">
-        <v>0.005860053633552909</v>
+        <v>0.00491639440825864</v>
       </c>
       <c r="J14">
-        <v>0.3336486152223657</v>
+        <v>0.2873376701282773</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09161527430638827</v>
+        <v>0.1355151282060749</v>
       </c>
       <c r="M14">
-        <v>1.171224124437799</v>
+        <v>0.1134241750863954</v>
       </c>
       <c r="N14">
-        <v>0.05722671606557128</v>
+        <v>0.09191890293475069</v>
       </c>
       <c r="O14">
-        <v>0.1942885915918922</v>
+        <v>1.161218695246873</v>
       </c>
       <c r="P14">
-        <v>0.975542743417023</v>
+        <v>0.06692719399075742</v>
       </c>
       <c r="Q14">
-        <v>1.42124596943782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1903449853414578</v>
+      </c>
+      <c r="R14">
+        <v>0.9710907907659845</v>
+      </c>
+      <c r="S14">
+        <v>1.2796806655777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.264085638639386</v>
+        <v>1.201271642177147</v>
       </c>
       <c r="C15">
-        <v>0.1972881150274191</v>
+        <v>0.1918348334041582</v>
       </c>
       <c r="D15">
-        <v>0.08515153579381263</v>
+        <v>0.08900660995024623</v>
       </c>
       <c r="E15">
-        <v>0.04054563841707692</v>
+        <v>0.03956623167440576</v>
       </c>
       <c r="F15">
-        <v>0.5822631456833278</v>
+        <v>0.5349237087937695</v>
       </c>
       <c r="G15">
-        <v>0.3603864140013258</v>
+        <v>0.356528043179253</v>
       </c>
       <c r="H15">
-        <v>0.180489846822681</v>
+        <v>0.1796810765348482</v>
       </c>
       <c r="I15">
-        <v>0.006178863303202498</v>
+        <v>0.005202499329234556</v>
       </c>
       <c r="J15">
-        <v>0.3312601960687687</v>
+        <v>0.2903685755345968</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09362719858845736</v>
+        <v>0.1351734648598679</v>
       </c>
       <c r="M15">
-        <v>1.157356063035024</v>
+        <v>0.1122269221454619</v>
       </c>
       <c r="N15">
-        <v>0.05326433053740232</v>
+        <v>0.09405433272377195</v>
       </c>
       <c r="O15">
-        <v>0.1880483640360353</v>
+        <v>1.148840658235173</v>
       </c>
       <c r="P15">
-        <v>0.9812738555613336</v>
+        <v>0.06255585772269612</v>
       </c>
       <c r="Q15">
-        <v>1.404502234223045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1843619515132744</v>
+      </c>
+      <c r="R15">
+        <v>0.9760381163112797</v>
+      </c>
+      <c r="S15">
+        <v>1.269678315323773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.186444507389155</v>
+        <v>1.133323120126818</v>
       </c>
       <c r="C16">
-        <v>0.1920774028932897</v>
+        <v>0.1860164911855406</v>
       </c>
       <c r="D16">
-        <v>0.08191303650374948</v>
+        <v>0.0845319179552817</v>
       </c>
       <c r="E16">
-        <v>0.04062068132737229</v>
+        <v>0.0396916862016119</v>
       </c>
       <c r="F16">
-        <v>0.5809049321461472</v>
+        <v>0.5406471745238477</v>
       </c>
       <c r="G16">
-        <v>0.3603739439641416</v>
+        <v>0.3349984835294535</v>
       </c>
       <c r="H16">
-        <v>0.1687113452632332</v>
+        <v>0.1677197100391652</v>
       </c>
       <c r="I16">
-        <v>0.007233933255925251</v>
+        <v>0.005999354958003522</v>
       </c>
       <c r="J16">
-        <v>0.3340782867015193</v>
+        <v>0.315946442004936</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09125024999953979</v>
+        <v>0.139184742195285</v>
       </c>
       <c r="M16">
-        <v>1.085896040819023</v>
+        <v>0.1131118854850239</v>
       </c>
       <c r="N16">
-        <v>0.05249642211800776</v>
+        <v>0.09143944055033515</v>
       </c>
       <c r="O16">
-        <v>0.1776720211589549</v>
+        <v>1.084401137405848</v>
       </c>
       <c r="P16">
-        <v>0.9966856251961644</v>
+        <v>0.06166408007381108</v>
       </c>
       <c r="Q16">
-        <v>1.410207707306725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1748214624540481</v>
+      </c>
+      <c r="R16">
+        <v>0.984246945510904</v>
+      </c>
+      <c r="S16">
+        <v>1.295155851257391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.155235869262668</v>
+        <v>1.104614055827994</v>
       </c>
       <c r="C17">
-        <v>0.1857301578498536</v>
+        <v>0.1791008251098418</v>
       </c>
       <c r="D17">
-        <v>0.08427450996245511</v>
+        <v>0.08647404076047849</v>
       </c>
       <c r="E17">
-        <v>0.04180897277677431</v>
+        <v>0.04077287684395792</v>
       </c>
       <c r="F17">
-        <v>0.5973176439627537</v>
+        <v>0.5585762011180506</v>
       </c>
       <c r="G17">
-        <v>0.3717160881511887</v>
+        <v>0.3367632828314413</v>
       </c>
       <c r="H17">
-        <v>0.1314977145459864</v>
+        <v>0.1304025136307985</v>
       </c>
       <c r="I17">
-        <v>0.007851056598934036</v>
+        <v>0.006477507931521131</v>
       </c>
       <c r="J17">
-        <v>0.341742967379254</v>
+        <v>0.3337042903035012</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08509054454000875</v>
+        <v>0.1439991685683637</v>
       </c>
       <c r="M17">
-        <v>1.045057576273791</v>
+        <v>0.1162024240084438</v>
       </c>
       <c r="N17">
-        <v>0.06077588653244703</v>
+        <v>0.08480590396582954</v>
       </c>
       <c r="O17">
-        <v>0.1807304374823069</v>
+        <v>1.046558143848785</v>
       </c>
       <c r="P17">
-        <v>1.000731465914587</v>
+        <v>0.07069127116296059</v>
       </c>
       <c r="Q17">
-        <v>1.450201046050907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1781167594776463</v>
+      </c>
+      <c r="R17">
+        <v>0.9838179484162524</v>
+      </c>
+      <c r="S17">
+        <v>1.33943390979374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.161979987640024</v>
+        <v>1.109005452420718</v>
       </c>
       <c r="C18">
-        <v>0.1776860483377547</v>
+        <v>0.1705180925682441</v>
       </c>
       <c r="D18">
-        <v>0.09190746351720236</v>
+        <v>0.09407852072325795</v>
       </c>
       <c r="E18">
-        <v>0.04538754725358363</v>
+        <v>0.04406290933586465</v>
       </c>
       <c r="F18">
-        <v>0.6324103705480795</v>
+        <v>0.5917483067806373</v>
       </c>
       <c r="G18">
-        <v>0.3952942341068137</v>
+        <v>0.3542007066313886</v>
       </c>
       <c r="H18">
-        <v>0.07879897280936632</v>
+        <v>0.07767660698171852</v>
       </c>
       <c r="I18">
-        <v>0.007775786948166719</v>
+        <v>0.006312032743952756</v>
       </c>
       <c r="J18">
-        <v>0.3549847231495349</v>
+        <v>0.3504551745526001</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07773344664529169</v>
+        <v>0.1507460280999506</v>
       </c>
       <c r="M18">
-        <v>1.025697692629819</v>
+        <v>0.1219938249134849</v>
       </c>
       <c r="N18">
-        <v>0.08038773827487233</v>
+        <v>0.07665033580975766</v>
       </c>
       <c r="O18">
-        <v>0.1961886892846856</v>
+        <v>1.028504770377509</v>
       </c>
       <c r="P18">
-        <v>0.997056479453736</v>
+        <v>0.09196899005904413</v>
       </c>
       <c r="Q18">
-        <v>1.527862882300852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.193459103412259</v>
+      </c>
+      <c r="R18">
+        <v>0.9764557628461716</v>
+      </c>
+      <c r="S18">
+        <v>1.411938671197944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.194566431053147</v>
+        <v>1.135988530391273</v>
       </c>
       <c r="C19">
-        <v>0.1705925964272339</v>
+        <v>0.1630822966090477</v>
       </c>
       <c r="D19">
-        <v>0.1037323536127417</v>
+        <v>0.1061100863430084</v>
       </c>
       <c r="E19">
-        <v>0.05247956871457227</v>
+        <v>0.05070734034885671</v>
       </c>
       <c r="F19">
-        <v>0.6793331361927599</v>
+        <v>0.6344883552904292</v>
       </c>
       <c r="G19">
-        <v>0.4262479501993113</v>
+        <v>0.3803090917043335</v>
       </c>
       <c r="H19">
-        <v>0.03312039587466131</v>
+        <v>0.03205091680946737</v>
       </c>
       <c r="I19">
-        <v>0.007717945492881739</v>
+        <v>0.006323501734993187</v>
       </c>
       <c r="J19">
-        <v>0.3712487837756626</v>
+        <v>0.3664090254462522</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07412500079089401</v>
+        <v>0.1584071694531559</v>
       </c>
       <c r="M19">
-        <v>1.024978171717351</v>
+        <v>0.1293810302091565</v>
       </c>
       <c r="N19">
-        <v>0.1124618637098749</v>
+        <v>0.07192377509684889</v>
       </c>
       <c r="O19">
-        <v>0.2210698433668057</v>
+        <v>1.028218683502558</v>
       </c>
       <c r="P19">
-        <v>0.9908696828629111</v>
+        <v>0.1265389176507767</v>
       </c>
       <c r="Q19">
-        <v>1.627534538589018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2179842711861006</v>
+      </c>
+      <c r="R19">
+        <v>0.9669063897240591</v>
+      </c>
+      <c r="S19">
+        <v>1.500391487962048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.306554633254734</v>
+        <v>1.233250260160929</v>
       </c>
       <c r="C20">
-        <v>0.1641353825685954</v>
+        <v>0.1565921113898767</v>
       </c>
       <c r="D20">
-        <v>0.1268176454558301</v>
+        <v>0.1301129453625975</v>
       </c>
       <c r="E20">
-        <v>0.0689350280598795</v>
+        <v>0.06631308770136535</v>
       </c>
       <c r="F20">
-        <v>0.7613129991778322</v>
+        <v>0.7055049442845487</v>
       </c>
       <c r="G20">
-        <v>0.4797244976250425</v>
+        <v>0.4333543969881219</v>
       </c>
       <c r="H20">
-        <v>0.005083891020308151</v>
+        <v>0.004262130786538254</v>
       </c>
       <c r="I20">
-        <v>0.00667790205465657</v>
+        <v>0.005581233484184267</v>
       </c>
       <c r="J20">
-        <v>0.3968913154787685</v>
+        <v>0.3793394866132402</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07997883986046261</v>
+        <v>0.1682206136170805</v>
       </c>
       <c r="M20">
-        <v>1.07649076653513</v>
+        <v>0.1424785317021993</v>
       </c>
       <c r="N20">
-        <v>0.1771067190815074</v>
+        <v>0.07566985824815387</v>
       </c>
       <c r="O20">
-        <v>0.2721135627688369</v>
+        <v>1.077998953075507</v>
       </c>
       <c r="P20">
-        <v>0.9747382323319282</v>
+        <v>0.1959880477955096</v>
       </c>
       <c r="Q20">
-        <v>1.794716592055664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2679603164085833</v>
+      </c>
+      <c r="R20">
+        <v>0.9469432508332289</v>
+      </c>
+      <c r="S20">
+        <v>1.638038721124644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.473636719763761</v>
+        <v>1.376684244516042</v>
       </c>
       <c r="C21">
-        <v>0.1695202143416523</v>
+        <v>0.1630870490936616</v>
       </c>
       <c r="D21">
-        <v>0.1406992550590758</v>
+        <v>0.1474747856273808</v>
       </c>
       <c r="E21">
-        <v>0.07377859139464249</v>
+        <v>0.07114191293754502</v>
       </c>
       <c r="F21">
-        <v>0.7930972589527059</v>
+        <v>0.7158988536791924</v>
       </c>
       <c r="G21">
-        <v>0.4988480412884968</v>
+        <v>0.5075477765172138</v>
       </c>
       <c r="H21">
-        <v>0.00319748315233026</v>
+        <v>0.00268669613166439</v>
       </c>
       <c r="I21">
-        <v>0.005013269439114509</v>
+        <v>0.004414141618502399</v>
       </c>
       <c r="J21">
-        <v>0.4013977337826304</v>
+        <v>0.3176751968385148</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08301181251929712</v>
+        <v>0.1615068341624237</v>
       </c>
       <c r="M21">
-        <v>1.210906895563511</v>
+        <v>0.1462771066485971</v>
       </c>
       <c r="N21">
-        <v>0.2004944326056801</v>
+        <v>0.07795677990129501</v>
       </c>
       <c r="O21">
-        <v>0.3081093333816014</v>
+        <v>1.198111451130075</v>
       </c>
       <c r="P21">
-        <v>0.9392772821480015</v>
+        <v>0.2215870680104217</v>
       </c>
       <c r="Q21">
-        <v>1.844997812352716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3015989476711027</v>
+      </c>
+      <c r="R21">
+        <v>0.9172758682508615</v>
+      </c>
+      <c r="S21">
+        <v>1.628555975559181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.582387230496892</v>
+        <v>1.469325543225722</v>
       </c>
       <c r="C22">
-        <v>0.1729412689420755</v>
+        <v>0.1670518794704563</v>
       </c>
       <c r="D22">
-        <v>0.148759014509352</v>
+        <v>0.1580850477413236</v>
       </c>
       <c r="E22">
-        <v>0.07612955488017903</v>
+        <v>0.07357548336690378</v>
       </c>
       <c r="F22">
-        <v>0.812192246398439</v>
+        <v>0.7200568588648792</v>
       </c>
       <c r="G22">
-        <v>0.5105944259026955</v>
+        <v>0.5639308988045997</v>
       </c>
       <c r="H22">
-        <v>0.002315526033142667</v>
+        <v>0.00196036992309423</v>
       </c>
       <c r="I22">
-        <v>0.00383210880665974</v>
+        <v>0.00343451230458669</v>
       </c>
       <c r="J22">
-        <v>0.4040150781482197</v>
+        <v>0.2831662764657104</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08450197635908374</v>
+        <v>0.1569934393763166</v>
       </c>
       <c r="M22">
-        <v>1.298164839203849</v>
+        <v>0.1486971752273831</v>
       </c>
       <c r="N22">
-        <v>0.2121160646795062</v>
+        <v>0.07905543773228896</v>
       </c>
       <c r="O22">
-        <v>0.3297250952063138</v>
+        <v>1.274845657706265</v>
       </c>
       <c r="P22">
-        <v>0.916790859670515</v>
+        <v>0.2344271133050881</v>
       </c>
       <c r="Q22">
-        <v>1.875571682956803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3215546769569784</v>
+      </c>
+      <c r="R22">
+        <v>0.899205526441694</v>
+      </c>
+      <c r="S22">
+        <v>1.617312829412384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.527030966603149</v>
+        <v>1.423684722310355</v>
       </c>
       <c r="C23">
-        <v>0.1706694293970088</v>
+        <v>0.1645812411002296</v>
       </c>
       <c r="D23">
-        <v>0.1443845918929441</v>
+        <v>0.1519742567755316</v>
       </c>
       <c r="E23">
-        <v>0.07495840532727627</v>
+        <v>0.07230169640242501</v>
       </c>
       <c r="F23">
-        <v>0.8034057133323032</v>
+        <v>0.7209220791913751</v>
       </c>
       <c r="G23">
-        <v>0.5055151130305831</v>
+        <v>0.5273167384656574</v>
       </c>
       <c r="H23">
-        <v>0.002760905018252657</v>
+        <v>0.002322411474006914</v>
       </c>
       <c r="I23">
-        <v>0.004107363493992544</v>
+        <v>0.003540912937753937</v>
       </c>
       <c r="J23">
-        <v>0.4032206832943928</v>
+        <v>0.3066027235099611</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08380092583643339</v>
+        <v>0.1600166867595263</v>
       </c>
       <c r="M23">
-        <v>1.251544186373025</v>
+        <v>0.1481840475155707</v>
       </c>
       <c r="N23">
-        <v>0.2054240593644892</v>
+        <v>0.07857263722693908</v>
       </c>
       <c r="O23">
-        <v>0.3183337671203716</v>
+        <v>1.235459144549424</v>
       </c>
       <c r="P23">
-        <v>0.9287348487284053</v>
+        <v>0.2270778734888381</v>
       </c>
       <c r="Q23">
-        <v>1.863038869042668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3112355801243609</v>
+      </c>
+      <c r="R23">
+        <v>0.9082598050985951</v>
+      </c>
+      <c r="S23">
+        <v>1.631869975746454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.312789569874553</v>
+        <v>1.23892074672122</v>
       </c>
       <c r="C24">
-        <v>0.1628194163358998</v>
+        <v>0.1549097428040653</v>
       </c>
       <c r="D24">
-        <v>0.1280112343161193</v>
+        <v>0.1313099878681214</v>
       </c>
       <c r="E24">
-        <v>0.07038121790147756</v>
+        <v>0.06769487755719794</v>
       </c>
       <c r="F24">
-        <v>0.768880068225549</v>
+        <v>0.7125885083814154</v>
       </c>
       <c r="G24">
-        <v>0.4851696223855697</v>
+        <v>0.4378567894934164</v>
       </c>
       <c r="H24">
-        <v>0.004870354139807243</v>
+        <v>0.004057476406553351</v>
       </c>
       <c r="I24">
-        <v>0.006120771803429292</v>
+        <v>0.004929541167799201</v>
       </c>
       <c r="J24">
-        <v>0.399739104648333</v>
+        <v>0.3824811610861687</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08094738878744501</v>
+        <v>0.1698179496170091</v>
       </c>
       <c r="M24">
-        <v>1.075120633713823</v>
+        <v>0.1439967025656941</v>
       </c>
       <c r="N24">
-        <v>0.180988286427322</v>
+        <v>0.07646076963393611</v>
       </c>
       <c r="O24">
-        <v>0.2749840496586202</v>
+        <v>1.076755709159784</v>
       </c>
       <c r="P24">
-        <v>0.9752757466338622</v>
+        <v>0.2001442665820434</v>
       </c>
       <c r="Q24">
-        <v>1.812220703292695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2708000950127349</v>
+      </c>
+      <c r="R24">
+        <v>0.9466535310178941</v>
+      </c>
+      <c r="S24">
+        <v>1.654174393770461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.081229758594247</v>
+        <v>1.025481748234085</v>
       </c>
       <c r="C25">
-        <v>0.1543635727010013</v>
+        <v>0.1418356545072115</v>
       </c>
       <c r="D25">
-        <v>0.1105047887698092</v>
+        <v>0.1131299429343073</v>
       </c>
       <c r="E25">
-        <v>0.06542778466320165</v>
+        <v>0.06327140739322168</v>
       </c>
       <c r="F25">
-        <v>0.7339203143161299</v>
+        <v>0.6861005906821731</v>
       </c>
       <c r="G25">
-        <v>0.4650305313186252</v>
+        <v>0.4190542579479057</v>
       </c>
       <c r="H25">
-        <v>0.007968823608022285</v>
+        <v>0.006704261110472592</v>
       </c>
       <c r="I25">
-        <v>0.009199349623921549</v>
+        <v>0.007249938648402399</v>
       </c>
       <c r="J25">
-        <v>0.3971113439099128</v>
+        <v>0.3865027553938489</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07775938704235319</v>
+        <v>0.1775749752628251</v>
       </c>
       <c r="M25">
-        <v>0.8848295493025091</v>
+        <v>0.137442325027525</v>
       </c>
       <c r="N25">
-        <v>0.1548370926794078</v>
+        <v>0.07378707705529308</v>
       </c>
       <c r="O25">
-        <v>0.2282704949971226</v>
+        <v>0.8878339500427614</v>
       </c>
       <c r="P25">
-        <v>1.028090162993752</v>
+        <v>0.1712102346025972</v>
       </c>
       <c r="Q25">
-        <v>1.76357103085968</v>
+        <v>0.2251499179362426</v>
+      </c>
+      <c r="R25">
+        <v>0.9932866691667517</v>
+      </c>
+      <c r="S25">
+        <v>1.627007935523139</v>
       </c>
     </row>
   </sheetData>
